--- a/data/output/FV2304_FV2210/UTILMD/11019.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11019.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="312">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="312">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1055,6 +1055,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,7 +1374,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8758,5 +8791,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11019.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11019.xlsx
@@ -1943,7 +1943,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2805,7 +2805,7 @@
         <v>292</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4317,7 +4317,7 @@
         <v>294</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4521,7 +4521,7 @@
         <v>295</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4725,7 +4725,7 @@
         <v>296</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4929,7 +4929,7 @@
         <v>297</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5131,7 +5131,7 @@
         <v>298</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5511,7 +5511,7 @@
         <v>300</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5799,7 +5799,7 @@
         <v>301</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6045,7 +6045,7 @@
         <v>303</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6291,7 +6291,7 @@
         <v>305</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6479,7 +6479,7 @@
         <v>294</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6673,7 +6673,7 @@
         <v>306</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6771,7 +6771,7 @@
         <v>294</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -6963,7 +6963,7 @@
         <v>307</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7263,7 +7263,7 @@
         <v>294</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7403,7 +7403,7 @@
         <v>294</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7817,7 +7817,7 @@
         <v>309</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8797,7 +8797,7 @@
         <v>311</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9243,7 +9243,7 @@
         <v>294</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N159" s="2"/>
